--- a/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-18,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>-58,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>3,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,62</t>
+          <t>-38,97; 4,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 8,36</t>
+          <t>-25,02; 8,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 7,18</t>
+          <t>-6,35; 40,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 11,69</t>
+          <t>-30,03; 40,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 27,6</t>
+          <t>-90,36; 49,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 69,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 50,98</t>
+          <t>-33,82; 699,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 68,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,81%</t>
+          <t>-20,1%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 14,12</t>
+          <t>-8,94; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 10,8</t>
+          <t>-3,81; 8,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 7,15</t>
+          <t>-5,02; 7,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 12,66</t>
+          <t>-22,36; 11,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 91,06</t>
+          <t>-37,28; 27,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 61,17</t>
+          <t>-22,45; 69,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 43,93</t>
+          <t>-24,13; 50,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 128,67</t>
+          <t>-67,79; 68,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,66</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,96%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,55%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>44,26%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 4,35</t>
+          <t>-2,07; 14,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 8,19</t>
+          <t>-8,89; 5,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 40,07</t>
+          <t>-13,54; 1,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 40,94</t>
+          <t>-11,83; 24,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,36; 49,19</t>
+          <t>-9,32; 92,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,84; 38,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 699,79</t>
+          <t>-47,5; 9,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,1; 300,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>-23,81%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 14,04</t>
+          <t>0,55; 14,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 5,83</t>
+          <t>-2,91; 10,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 1,96</t>
+          <t>-6,22; 7,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 24,45</t>
+          <t>-20,7; 12,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 92,16</t>
+          <t>1,87; 91,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 38,06</t>
+          <t>-12,19; 61,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 9,91</t>
+          <t>-27,22; 43,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 300,88</t>
+          <t>-77,01; 128,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 4,35</t>
+          <t>-37,49; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 8,19</t>
+          <t>-25,15; 7,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 40,07</t>
+          <t>-12,69; 39,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,36; 49,19</t>
+          <t>-91,96; 32,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 699,79</t>
+          <t>-60,69; 705,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 15,27</t>
+          <t>-3,48; 15,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 13,05</t>
+          <t>-5,35; 14,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 7,07</t>
+          <t>-9,39; 7,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 43,77</t>
+          <t>-3,45; 45,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 92,83</t>
+          <t>-14,2; 100,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 77,47</t>
+          <t>-22,35; 87,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 58,22</t>
+          <t>-45,57; 62,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 1748,17</t>
+          <t>-51,8; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,62</t>
+          <t>-9,29; 4,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 8,36</t>
+          <t>-3,65; 9,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 7,18</t>
+          <t>-4,81; 7,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 11,69</t>
+          <t>-21,16; 15,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 27,6</t>
+          <t>-38,71; 24,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 69,23</t>
+          <t>-20,0; 78,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 50,98</t>
+          <t>-22,94; 46,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 68,38</t>
+          <t>-66,79; 88,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 14,04</t>
+          <t>-1,96; 13,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 5,83</t>
+          <t>-7,42; 7,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 1,96</t>
+          <t>-13,83; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 24,45</t>
+          <t>-10,94; 24,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 92,16</t>
+          <t>-9,05; 89,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 38,06</t>
+          <t>-32,17; 49,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,5; 9,91</t>
+          <t>-46,77; 12,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 300,88</t>
+          <t>-58,33; 369,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 14,12</t>
+          <t>-0,15; 13,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 10,8</t>
+          <t>-3,45; 10,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 7,15</t>
+          <t>-6,55; 7,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 12,66</t>
+          <t>-21,41; 10,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 91,06</t>
+          <t>-0,93; 92,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 61,17</t>
+          <t>-14,12; 62,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 43,93</t>
+          <t>-26,95; 46,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 128,67</t>
+          <t>-75,51; 113,66</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,81</t>
+          <t>-0,78; 6,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,5</t>
+          <t>-1,18; 6,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,25</t>
+          <t>-4,18; 3,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 10,49</t>
+          <t>-8,41; 9,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 38,51</t>
+          <t>-3,35; 37,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 32,42</t>
+          <t>-6,04; 34,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 19,2</t>
+          <t>-19,26; 17,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 64,37</t>
+          <t>-35,42; 57,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 3,1</t>
+          <t>-39,81; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 7,91</t>
+          <t>-25,06; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 39,15</t>
+          <t>-8,25; 38,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 40,94</t>
+          <t>-26,88; 43,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-91,96; 32,77</t>
+          <t>-93,74; 28,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,69; 705,27</t>
+          <t>-43,97; 848,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 15,57</t>
+          <t>-3,81; 14,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,07</t>
+          <t>-5,98; 12,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 7,24</t>
+          <t>-10,06; 6,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 45,18</t>
+          <t>-6,11; 41,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 100,12</t>
+          <t>-16,96; 90,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 87,3</t>
+          <t>-24,39; 72,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,57; 62,19</t>
+          <t>-48,58; 50,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,8; —</t>
+          <t>-64,63; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 4,2</t>
+          <t>-8,85; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 9,03</t>
+          <t>-3,59; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 7,08</t>
+          <t>-5,06; 7,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 15,26</t>
+          <t>-19,59; 13,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 24,27</t>
+          <t>-35,75; 35,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 78,17</t>
+          <t>-20,76; 69,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 46,58</t>
+          <t>-24,21; 48,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 88,79</t>
+          <t>-62,52; 72,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,72</t>
+          <t>-2,87; 13,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 7,64</t>
+          <t>-8,51; 6,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 2,56</t>
+          <t>-13,16; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 24,98</t>
+          <t>-11,22; 23,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 89,38</t>
+          <t>-12,81; 89,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 49,54</t>
+          <t>-34,9; 43,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 12,93</t>
+          <t>-46,5; 13,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,33; 369,93</t>
+          <t>-58,94; 317,67</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 13,97</t>
+          <t>0,45; 14,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 10,82</t>
+          <t>-3,56; 10,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 7,69</t>
+          <t>-6,82; 7,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 10,89</t>
+          <t>-20,66; 11,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 92,37</t>
+          <t>2,06; 93,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 62,55</t>
+          <t>-14,58; 59,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,95; 46,41</t>
+          <t>-28,88; 45,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 113,66</t>
+          <t>-76,44; 107,59</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 6,81</t>
+          <t>-0,68; 6,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,02</t>
+          <t>-1,3; 6,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,01</t>
+          <t>-4,02; 2,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 9,64</t>
+          <t>-9,09; 8,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 37,15</t>
+          <t>-3,3; 36,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 34,51</t>
+          <t>-6,28; 34,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 17,15</t>
+          <t>-19,59; 15,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 57,99</t>
+          <t>-37,6; 53,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A02-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,66</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-58,96%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-48,55%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>116,58%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 3,4</t>
+          <t>-7,65; 9,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 9,22</t>
+          <t>-6,3; 10,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 38,96</t>
+          <t>-6,01; 10,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 43,78</t>
+          <t>-4,85; 33,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-93,74; 28,26</t>
+          <t>-27,67; 50,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,71; 61,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 848,37</t>
+          <t>-31,57; 83,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,73; 914,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>147,15%</t>
+          <t>-22,56%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 14,73</t>
+          <t>-8,94; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 12,32</t>
+          <t>-3,81; 8,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 6,43</t>
+          <t>-5,02; 7,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 41,23</t>
+          <t>-21,73; 11,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 90,78</t>
+          <t>-37,28; 27,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 72,29</t>
+          <t>-22,45; 69,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 50,76</t>
+          <t>-24,13; 50,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,63; —</t>
+          <t>-69,41; 63,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>49,55%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 5,56</t>
+          <t>-2,07; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 8,59</t>
+          <t>-8,89; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 7,33</t>
+          <t>-13,54; 1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 13,53</t>
+          <t>-11,12; 24,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 35,6</t>
+          <t>-9,32; 92,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 69,81</t>
+          <t>-35,84; 38,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 48,27</t>
+          <t>-47,5; 9,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,52; 72,94</t>
+          <t>-55,13; 323,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>-24,48%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 13,42</t>
+          <t>0,55; 14,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 6,64</t>
+          <t>-2,91; 10,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 2,67</t>
+          <t>-6,22; 7,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 23,54</t>
+          <t>-21,15; 12,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 89,39</t>
+          <t>1,87; 91,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 43,66</t>
+          <t>-12,19; 61,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 13,68</t>
+          <t>-27,22; 43,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 317,67</t>
+          <t>-77,53; 125,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,81%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 14,65</t>
+          <t>-0,4; 6,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 10,79</t>
+          <t>-1,41; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 7,53</t>
+          <t>-4,07; 3,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 11,22</t>
+          <t>-8,15; 10,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 93,96</t>
+          <t>-1,47; 38,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 59,54</t>
+          <t>-6,74; 32,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 45,97</t>
+          <t>-18,97; 19,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-76,44; 107,59</t>
+          <t>-35,11; 69,03</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 6,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 6,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 2,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 8,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 36,12</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 34,6</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 15,18</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-37,6; 53,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
